--- a/StructureDefinition-ext-R5-Consent.provision.xlsx
+++ b/StructureDefinition-ext-R5-Consent.provision.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -946,7 +946,7 @@
   </si>
   <si>
     <t>Element `Consent.provision.expression` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.expression` is mapped to FHIR R4 structure `Consent`, but has no target element specified.</t>
+Element `Consent.provision.expression` is will have a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Extension.extension:expression.id</t>

--- a/StructureDefinition-ext-R5-Consent.provision.xlsx
+++ b/StructureDefinition-ext-R5-Consent.provision.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Consent.provision` 0..1 `BackboneElement`
 *  R4: `Consent.provision` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `Consent.provision` is mapped to FHIR R4 element `Consent.provision`.</t>
+Element `Consent.provision` has is mapped to FHIR R4 element `Consent.provision`, but has no comparisons.
+Note available implied context: `Consent.provision.provision` because `Consent.provision.provision` is defined as a content reference to `Consent.provision`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Consent.provision</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>This is the bound effective time of the consent and should be in the base provision in the Consent resource.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.period` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.period` is mapped to FHIR R4 element `Consent.provision.period`.</t>
+    <t>Element `Consent.provision.period` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.period` has is mapped to FHIR R4 element `Consent.provision.period`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -429,8 +430,8 @@
     <t>Who or what is controlled by this provision. Use group to identify a set of actors by some property they share (e.g. 'admitting officers').</t>
   </si>
   <si>
-    <t>Element `Consent.provision.actor` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.actor` is mapped to FHIR R4 element `Consent.provision.actor`.</t>
+    <t>Element `Consent.provision.actor` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.actor` has is mapped to FHIR R4 element `Consent.provision.actor`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:actor.id</t>
@@ -451,7 +452,8 @@
     <t>How the individual is involved in the resources content that is described in the exception.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.actor.role` is mapped to FHIR R4 element `Consent.provision.actor.role`.</t>
+    <t>Element `Consent.provision.actor.role` is part of an existing definition because parent element `Consent.provision.actor` requires a cross-version extension.
+Element `Consent.provision.actor.role` has is mapped to FHIR R4 element `Consent.provision.actor.role`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:actor.extension:role.id</t>
@@ -506,7 +508,8 @@
     <t>The resource that identifies the actor. To identify actors by type, use group to identify a set of actors by some property they share (e.g. 'admitting officers').</t>
   </si>
   <si>
-    <t>Element `Consent.provision.actor.reference` is mapped to FHIR R4 element `Consent.provision.actor.reference`.</t>
+    <t>Element `Consent.provision.actor.reference` is part of an existing definition because parent element `Consent.provision.actor` requires a cross-version extension.
+Element `Consent.provision.actor.reference` has is mapped to FHIR R4 element `Consent.provision.actor.reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:actor.extension:reference.id</t>
@@ -562,8 +565,8 @@
     <t>Note that this is the direct action (not the grounds for the action covered in the purpose element). At present, the only action in the understood and tested scope of this resource is 'read'.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.action` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.action` is mapped to FHIR R4 element `Consent.provision.action`.</t>
+    <t>Element `Consent.provision.action` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.action` has is mapped to FHIR R4 element `Consent.provision.action`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.id</t>
@@ -605,8 +608,8 @@
     <t>If the consent specifies a security label of "R" then it applies to all resources that are labeled "R" or lower. E.g. for Confidentiality, it's a high water mark. For other kinds of security labels, subsumption logic applies. When the purpose of use tag is on the data, access request purpose of use shall not conflict.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.securityLabel` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.securityLabel` is mapped to FHIR R4 element `Consent.provision.securityLabel`.</t>
+    <t>Element `Consent.provision.securityLabel` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.securityLabel` has is mapped to FHIR R4 element `Consent.provision.securityLabel`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:securityLabel.id</t>
@@ -643,8 +646,8 @@
     <t>When the purpose of use tag is on the data, access request purpose of use shall not conflict.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.purpose` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.purpose` is mapped to FHIR R4 element `Consent.provision.purpose`.</t>
+    <t>Element `Consent.provision.purpose` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.purpose` has is mapped to FHIR R4 element `Consent.provision.purpose`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:purpose.id</t>
@@ -683,8 +686,8 @@
     <t>Multiple types are or'ed together. The intention of the documentType element is that the codes refer to document types defined in a standard somewhere.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.documentType` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.documentType` is mapped to FHIR R4 element `Consent.provision.class`.</t>
+    <t>Element `Consent.provision.documentType` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.documentType` has is mapped to FHIR R4 element `Consent.provision.class`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:documentType.id</t>
@@ -726,8 +729,8 @@
     <t>Multiple types are or'ed together. The intention of the resourceType element is that the codes refer to profiles or document types defined in a standard or an implementation guide somewhere.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.resourceType` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.resourceType` is mapped to FHIR R4 element `Consent.provision.class`.</t>
+    <t>Element `Consent.provision.resourceType` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.resourceType` has is mapped to FHIR R4 element `Consent.provision.class`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resourceType.id</t>
@@ -763,8 +766,8 @@
     <t>If this code is found in an instance, then the provision applies.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.code` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.code` is mapped to FHIR R4 element `Consent.provision.code`.</t>
+    <t>Element `Consent.provision.code` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.code` has is mapped to FHIR R4 element `Consent.provision.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -803,8 +806,8 @@
     <t>This has a different sense to the Consent.period - that is when the consent agreement holds. This is the time period of the data that is controlled by the agreement.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.dataPeriod` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.dataPeriod` is mapped to FHIR R4 element `Consent.provision.dataPeriod`.</t>
+    <t>Element `Consent.provision.dataPeriod` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.dataPeriod` has is mapped to FHIR R4 element `Consent.provision.dataPeriod`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:dataPeriod.id</t>
@@ -834,8 +837,8 @@
     <t>The resources controlled by this provision if specific resources are referenced.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.data` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.data` is mapped to FHIR R4 element `Consent.provision.data`.</t>
+    <t>Element `Consent.provision.data` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.data` has is mapped to FHIR R4 element `Consent.provision.data`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:data.id</t>
@@ -859,7 +862,8 @@
     <t>How the resource reference is interpreted when testing consent restrictions.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.data.meaning` is mapped to FHIR R4 element `Consent.provision.data.meaning`.</t>
+    <t>Element `Consent.provision.data.meaning` is part of an existing definition because parent element `Consent.provision.data` requires a cross-version extension.
+Element `Consent.provision.data.meaning` has is mapped to FHIR R4 element `Consent.provision.data.meaning`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:data.extension:meaning.id</t>
@@ -899,7 +903,8 @@
     <t>A reference to a specific resource that defines which resources are covered by this consent.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.data.reference` is mapped to FHIR R4 element `Consent.provision.data.reference`.</t>
+    <t>Element `Consent.provision.data.reference` is part of an existing definition because parent element `Consent.provision.data` requires a cross-version extension.
+Element `Consent.provision.data.reference` has is mapped to FHIR R4 element `Consent.provision.data.reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:data.extension:reference.id</t>
@@ -945,8 +950,8 @@
     <t>Constraining the expression type for a specific implementation via profile is recommended</t>
   </si>
   <si>
-    <t>Element `Consent.provision.expression` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.expression` is will have a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.</t>
+    <t>Element `Consent.provision.expression` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.expression` has a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Extension.extension:expression.id</t>
@@ -980,8 +985,8 @@
     <t>Provisions which provide exceptions to the base provision or subprovisions.</t>
   </si>
   <si>
-    <t>Element `Consent.provision.provision` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.provision` is mapped to FHIR R4 element `Consent.provision.provision`.</t>
+    <t>Element `Consent.provision.provision` is part of an existing definition because parent element `Consent.provision` requires a cross-version extension.
+Element `Consent.provision.provision` has is mapped to FHIR R4 element `Consent.provision.provision`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:provision.id</t>
@@ -1333,7 +1338,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="165.38671875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="130.3046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Consent.provision.xlsx
+++ b/StructureDefinition-ext-R5-Consent.provision.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="296">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -487,15 +487,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>How an actor is involved in the consent considerations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participation-role-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:actor.extension:reference</t>
   </si>
   <si>
@@ -527,7 +518,7 @@
     <t>Extension.extension:actor.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -584,15 +575,6 @@
     <t>Extension.extension:action.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Detailed codes for the consent action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-action-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:securityLabel</t>
   </si>
   <si>
@@ -665,12 +647,6 @@
     <t>Extension.extension:purpose.value[x]</t>
   </si>
   <si>
-    <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-PurposeOfUse-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:documentType</t>
   </si>
   <si>
@@ -705,15 +681,6 @@
     <t>Extension.extension:documentType.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The document type a consent provision covers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-content-class-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resourceType</t>
   </si>
   <si>
@@ -748,12 +715,6 @@
     <t>Extension.extension:resourceType.value[x]</t>
   </si>
   <si>
-    <t>The resource types a consent provision covers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-resource-types-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -785,12 +746,6 @@
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
-    <t>If this code is found in an instance, then the exception applies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-content-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:dataPeriod</t>
   </si>
   <si>
@@ -885,15 +840,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How a resource reference is interpreted when testing consent restrictions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-data-meaning-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:data.extension:reference</t>
   </si>
   <si>
@@ -922,7 +868,7 @@
     <t>Extension.extension:data.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1348,8 +1294,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="109.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3105,13 +3051,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3149,13 +3095,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3180,14 +3126,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3256,7 +3202,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>140</v>
@@ -3359,7 +3305,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>142</v>
@@ -3464,7 +3410,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>144</v>
@@ -3507,7 +3453,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3569,7 +3515,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>147</v>
@@ -3595,13 +3541,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3672,7 +3618,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3715,7 +3661,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3777,7 +3723,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3803,13 +3749,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3880,13 +3826,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3911,16 +3857,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3989,7 +3935,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4092,7 +4038,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4197,7 +4143,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4240,7 +4186,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4302,7 +4248,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4331,13 +4277,13 @@
         <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4363,13 +4309,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4407,13 +4353,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4438,16 +4384,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4516,7 +4462,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4619,7 +4565,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4724,7 +4670,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4767,7 +4713,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4829,7 +4775,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4855,16 +4801,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4934,13 +4880,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4965,16 +4911,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5043,7 +4989,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5146,7 +5092,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5251,7 +5197,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5294,7 +5240,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5302,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5382,16 +5328,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5417,13 +5363,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5461,13 +5407,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5492,16 +5438,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5570,7 +5516,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5673,7 +5619,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5778,7 +5724,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5821,7 +5767,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5883,7 +5829,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5909,16 +5855,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5944,13 +5890,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -5988,13 +5934,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6019,16 +5965,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6097,7 +6043,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6200,7 +6146,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6305,7 +6251,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6348,7 +6294,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6410,7 +6356,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6436,16 +6382,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6471,13 +6417,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -6515,13 +6461,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6546,14 +6492,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6622,7 +6568,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6725,7 +6671,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6830,7 +6776,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6873,7 +6819,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6935,7 +6881,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6964,10 +6910,10 @@
         <v>148</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6994,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7038,13 +6984,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7069,16 +7015,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7147,7 +7093,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7250,7 +7196,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7355,7 +7301,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7398,7 +7344,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7460,7 +7406,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7489,13 +7435,13 @@
         <v>124</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7565,13 +7511,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7596,14 +7542,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7672,7 +7618,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7775,7 +7721,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7786,7 +7732,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -7878,13 +7824,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7909,14 +7855,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7985,7 +7931,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>140</v>
@@ -8088,7 +8034,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>142</v>
@@ -8193,7 +8139,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>144</v>
@@ -8236,7 +8182,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8244,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>147</v>
@@ -8324,13 +8270,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8357,13 +8303,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -8401,13 +8347,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8432,14 +8378,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8508,7 +8454,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>140</v>
@@ -8611,7 +8557,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>142</v>
@@ -8716,7 +8662,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>144</v>
@@ -8759,7 +8705,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8821,7 +8767,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>147</v>
@@ -8847,13 +8793,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8924,7 +8870,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8967,7 +8913,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9029,7 +8975,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9055,13 +9001,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9132,13 +9078,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9163,16 +9109,16 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9241,7 +9187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9344,7 +9290,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9449,7 +9395,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9492,7 +9438,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9554,7 +9500,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9580,16 +9526,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9659,13 +9605,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9690,14 +9636,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9766,7 +9712,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -9869,7 +9815,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -9974,7 +9920,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10079,7 +10025,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10105,13 +10051,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10313,13 +10259,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
